--- a/Week 2/Excel Homework.xlsx
+++ b/Week 2/Excel Homework.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsldn\Code\SavvyCoders\Homework\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FDA74F4-F5FD-45F7-93E3-D06640E1AB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450F96A2-1383-4161-A28B-56DC4D9C46A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22785" yWindow="930" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1305" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payments" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -557,20 +557,20 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Garamond"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Garamond"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -602,31 +602,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Garamond"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Garamond"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -643,6 +625,20 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Garamond"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Garamond"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -658,7 +654,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -679,13 +675,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -716,26 +722,16 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -759,73 +755,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Linked Cell" xfId="3" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1003,17 +944,74 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -6861,7 +6859,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{208AB2CC-2188-4735-8977-D394FF033E62}" name="PivotTable7" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{208AB2CC-2188-4735-8977-D394FF033E62}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0"/>
@@ -7169,10 +7167,10 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="1" baseItem="0" numFmtId="177"/>
+    <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="1" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="13">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -7238,27 +7236,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A179B88-4FEF-4E09-B4CB-922359573261}" name="ExpTable" displayName="ExpTable" ref="A2:I210" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2" headerRowBorderDxfId="12" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A179B88-4FEF-4E09-B4CB-922359573261}" name="ExpTable" displayName="ExpTable" ref="A2:I210" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
   <autoFilter ref="A2:I210" xr:uid="{8A179B88-4FEF-4E09-B4CB-922359573261}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{80E42BC0-451E-430B-8B49-94F1C922F07A}" name="Document Date" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{3422BFB1-9847-4928-8675-D41CD97AA521}" name="Supplier" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{22126E84-CD37-40B4-BEA6-8EC02558D443}" name="Reference" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{1B9A501B-8D98-420F-8DB3-194003F32DF6}" name="Description" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{25FF6321-A455-41AE-A97B-2B9FD774AB1D}" name="Tax Inclusive Amount" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{966BA4D3-B089-46DE-AC15-79FF06DC6714}" name="Tax Code" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{E95AA482-274A-461D-94C5-F13E283A3B38}" name="Bank Code" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{AD32C80F-C560-48D8-A85B-AB8635EC5F12}" name="Account Code" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{DD715530-DC78-4464-8E4C-53CDD4D52DCC}" name="Payment Date" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{80E42BC0-451E-430B-8B49-94F1C922F07A}" name="Document Date" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{3422BFB1-9847-4928-8675-D41CD97AA521}" name="Supplier" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{22126E84-CD37-40B4-BEA6-8EC02558D443}" name="Reference" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{1B9A501B-8D98-420F-8DB3-194003F32DF6}" name="Description" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{25FF6321-A455-41AE-A97B-2B9FD774AB1D}" name="Tax Inclusive Amount" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{966BA4D3-B089-46DE-AC15-79FF06DC6714}" name="Tax Code" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{E95AA482-274A-461D-94C5-F13E283A3B38}" name="Bank Code" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{AD32C80F-C560-48D8-A85B-AB8635EC5F12}" name="Account Code" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{DD715530-DC78-4464-8E4C-53CDD4D52DCC}" name="Payment Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BE5E42ED-759A-4ABE-939F-63300541D166}" name="Table2" displayName="Table2" ref="B3:E14" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B3:E14" xr:uid="{BE5E42ED-759A-4ABE-939F-63300541D166}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{329C598B-6532-4A75-B755-11722E8EE674}" name="Student Name" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{A6292B3F-C9EB-40E4-B94A-EBE3D7B10B2B}" name="Age" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{B1DCB609-CD33-4305-B01D-305A9E2EC3FD}" name="Grade" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{9401B533-EECB-4FA4-8918-37191C8E5A47}" name="Class" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Organic">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Organic">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7266,48 +7277,83 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="212121"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="DADADA"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="83992A"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="3C9770"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="44709D"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="A23C33"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="D97828"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="DEB340"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="A8BF4D"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="B4CA80"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Organic">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Garamond" panose="02020404030301010803"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="돋움"/>
+        <a:font script="Hans" typeface="方正舒体"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Garamond" panose="02020404030301010803"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐ明朝"/>
+        <a:font script="Hang" typeface="바탕"/>
+        <a:font script="Hans" typeface="方正舒体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -7331,78 +7377,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Organic">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7411,76 +7388,54 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="60000"/>
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="82000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:duotone>
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:shade val="74000"/>
+                <a:satMod val="130000"/>
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
+                <a:satMod val="120000"/>
+                <a:lumMod val="104000"/>
               </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+            </a:duotone>
+          </a:blip>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -7488,13 +7443,19 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:innerShdw blurRad="25400" dist="12700" dir="13500000">
+              <a:srgbClr val="000000">
+                <a:alpha val="45000"/>
+              </a:srgbClr>
+            </a:innerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="60000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -7504,39 +7465,27 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="90000"/>
+                <a:lumMod val="110000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="88000"/>
+                <a:lumMod val="98000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch/>
+        </a:blipFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -7544,7 +7493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Organic" id="{28CDC826-8792-45C0-861B-85EB3ADEDA33}" vid="{7DAC20F1-423D-49E2-BD0B-50532748BAD0}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7554,7 +7503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDC89B4-0ECA-4B47-B6AA-19A3331E12CB}">
   <dimension ref="A3:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:E21"/>
     </sheetView>
   </sheetViews>
@@ -7564,275 +7513,275 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="27" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="28">
         <v>40910</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="29">
         <v>1000</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29">
         <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="28">
         <v>40913</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="29">
         <v>340</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29">
         <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="28">
         <v>40923</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="29">
         <v>80</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="29">
         <v>35</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="28">
         <v>40924</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="29">
         <v>1392</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29">
         <v>105</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="29">
         <v>1497</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="A9" s="28">
         <v>40928</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="29">
         <v>20000</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="29">
         <v>-20000</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="28">
         <v>40929</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29">
         <v>61</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="29">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="A11" s="28">
         <v>40934</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="29">
         <v>6720</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="29">
         <v>20000</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33">
+      <c r="D11" s="29"/>
+      <c r="E11" s="29">
         <v>26720</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="A12" s="28">
         <v>40939</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="29">
         <v>738.25</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33">
+      <c r="C12" s="29"/>
+      <c r="D12" s="29">
         <v>-170</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="29">
         <v>568.25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="28">
         <v>40941</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="29">
         <v>1000</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="A14" s="28">
         <v>40944</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="29">
         <v>340</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29">
         <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="A15" s="28">
         <v>40954</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="29">
         <v>80</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="29">
         <v>35</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29">
         <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+      <c r="A16" s="28">
         <v>40959</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="29">
         <v>20000</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="29">
         <v>-20000</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33">
+      <c r="D16" s="29"/>
+      <c r="E16" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="A17" s="28">
         <v>40964</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="29">
         <v>2200</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33">
+      <c r="C17" s="29"/>
+      <c r="D17" s="29">
         <v>75</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="29">
         <v>2275</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="28">
         <v>40965</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="29">
         <v>6720</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="29">
         <v>20000</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29">
         <v>26720</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+      <c r="A19" s="28">
         <v>40966</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="29">
         <v>514</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33">
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29">
         <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
+      <c r="A20" s="28">
         <v>40968</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="29">
         <v>3770</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33">
+      <c r="C20" s="29"/>
+      <c r="D20" s="29">
         <v>-70</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="29">
         <v>3700</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="29">
         <v>64894.25</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="29">
         <v>70</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="29">
         <v>1</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="29">
         <v>64965.25</v>
       </c>
     </row>
@@ -7853,9 +7802,9 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" style="11" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" style="12" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="4" customWidth="1"/>
@@ -7871,32 +7820,32 @@
       <c r="E1" s="3"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="25" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13934,270 +13883,927 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC18BDBE-E8BB-4EFA-BBE4-A3A12998D5DA}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="15" customWidth="1"/>
-    <col min="3" max="4" width="9.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="21.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="14"/>
+    <col min="7" max="7" width="19.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="3" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="30" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+    </row>
+    <row r="4" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4">
         <v>12</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4">
         <v>85</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+    </row>
+    <row r="5" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5">
         <v>11</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5">
         <v>72</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+    </row>
+    <row r="6" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6">
         <v>13</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6">
         <v>60</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+    </row>
+    <row r="7" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7">
         <v>12</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7">
         <v>95</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+    </row>
+    <row r="8" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8">
         <v>14</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8">
         <v>88</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+    </row>
+    <row r="9" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9">
         <v>12</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9">
         <v>99</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+    </row>
+    <row r="10" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10">
         <v>11</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10">
         <v>75</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+    </row>
+    <row r="11" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11">
         <v>13</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11">
         <v>100</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+    </row>
+    <row r="12" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12">
         <v>13</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12">
         <v>75</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+    </row>
+    <row r="13" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13">
         <v>15</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13">
         <v>85</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+    </row>
+    <row r="14" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14">
         <v>11</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14">
         <v>85</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <f>MIN(C4:C14)</f>
         <v>11</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <f>MIN(D4:D14)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <f>MAX(C4:C14)</f>
         <v>15</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <f>MAX(D4:D14)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="15">
         <f>AVERAGE(C4:C14)</f>
         <v>12.454545454545455</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <f>AVERAGE(D4:D14)</f>
         <v>83.545454545454547</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <f>_xlfn.MODE.SNGL(C4:C14)</f>
         <v>12</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <f>_xlfn.MODE.SNGL(D4:D14)</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <f>MEDIAN(C4:C14)</f>
         <v>12</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <f>MEDIAN(D4:D14)</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <f>COUNTA(B4:B14)</f>
         <v>11</v>
       </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+    </row>
+    <row r="33" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+    </row>
+    <row r="34" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+    </row>
+    <row r="35" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+    </row>
+    <row r="36" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+    </row>
+    <row r="37" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+    </row>
+    <row r="38" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+    </row>
+    <row r="39" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -14211,170 +14817,170 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="21" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="17">
         <v>2000</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="18">
         <v>0.21</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="17">
         <f>B4*C4</f>
         <v>420</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="17">
         <f>B4+E4</f>
         <v>2420</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="17">
         <f>F4/D4</f>
         <v>806.66666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="17">
         <v>450</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="19">
         <v>0.25</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="17">
         <f t="shared" ref="E5:E8" si="0">B5*C5</f>
         <v>112.5</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="17">
         <f t="shared" ref="F5:F8" si="1">B5+E5</f>
         <v>562.5</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="17">
         <f t="shared" ref="G5:G8" si="2">F5/D5</f>
         <v>187.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="17">
         <v>975</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="19">
         <v>0.27</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="17">
         <f t="shared" si="0"/>
         <v>263.25</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="17">
         <f t="shared" si="1"/>
         <v>1238.25</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="17">
         <f t="shared" si="2"/>
         <v>412.75</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="17">
         <v>1500</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="19">
         <v>0.15</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="17">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="17">
         <f t="shared" si="1"/>
         <v>1725</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="17">
         <f t="shared" si="2"/>
         <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="17">
         <v>780</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="19">
         <v>0.25</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="17">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="17">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="17">
         <f t="shared" si="2"/>
         <v>325</v>
       </c>
